--- a/product/抽奖结果.xlsx
+++ b/product/抽奖结果.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -632,29 +632,35 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>4等奖</v>
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B25" t="str">
+        <v>王柳-wangliu</v>
+      </c>
+      <c r="C25" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577700069_5e09cae5b952f.jpg</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>MQ1108M52FEE3</v>
+        <v>MQ1108M52K3F9</v>
       </c>
       <c r="B26" t="str">
         <v>张弦-zhangxian</v>
       </c>
       <c r="C26" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772554_5e0ae60ae868a.jpg</v>
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577684916_5e098fb4d9674.jpg</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>MQ1108M52FEE3</v>
+        <v>MQ1108M52K3F9</v>
       </c>
       <c r="B27" t="str">
         <v>张弦-zhangxian</v>
       </c>
       <c r="C27" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772545_5e0ae601cea47.jpg</v>
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577684898_5e098fa20c736.jpg</v>
       </c>
     </row>
     <row r="28">
@@ -662,10 +668,10 @@
         <v>MQ1108M52K3F9</v>
       </c>
       <c r="B28" t="str">
-        <v>张弦-zhangxian</v>
+        <v>长虹-changhong</v>
       </c>
       <c r="C28" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772493_5e0ae5cd490a5.jpg</v>
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577692450_5e09ad22605f4.jpg</v>
       </c>
     </row>
     <row r="29">
@@ -673,10 +679,10 @@
         <v>MQ1108M52K3F9</v>
       </c>
       <c r="B29" t="str">
-        <v>张弦-zhangxian</v>
+        <v>张七-zhangqi</v>
       </c>
       <c r="C29" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577700069_5e09cae5b952f.jpg</v>
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577700090_5e09cafa0c4e5.jpg</v>
       </c>
     </row>
     <row r="30">
@@ -684,80 +690,294 @@
         <v>MQ1108M52K3F9</v>
       </c>
       <c r="B30" t="str">
-        <v>张弦-zhangxian</v>
+        <v>苏婷-suting</v>
       </c>
       <c r="C30" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577693997_5e09b32d95852.jpg</v>
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577692585_5e09ada922fe6.jpg</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>5等奖</v>
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B31" t="str">
+        <v>张三-zhangsan</v>
+      </c>
+      <c r="C31" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577685552_5e0992304509e.jpg</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>特别奖</v>
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B32" t="str">
+        <v>王方言-wangfangyan</v>
+      </c>
+      <c r="C32" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577692580_5e09ada492bac.jpg</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>MQ1108M52N6F3</v>
+        <v>MQ1108M52K3F9</v>
       </c>
       <c r="B33" t="str">
-        <v>张弦-zhangxian</v>
+        <v>陆雨婷-luyuting</v>
       </c>
       <c r="C33" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772559_5e0ae60f08052.jpg</v>
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577693997_5e09b32d95852.jpg</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>MAA118823000B</v>
+        <v>MQ1108M52K3F9</v>
       </c>
       <c r="B34" t="str">
-        <v>张弦-zhangxian</v>
+        <v>李四-lisi</v>
       </c>
       <c r="C34" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772552_5e0ae6080c0ef.jpg</v>
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577692419_5e09ad034db5c.jpg</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>MQ1108M52N6F3</v>
-      </c>
-      <c r="B35" t="str">
-        <v>张弦-zhangxian</v>
-      </c>
-      <c r="C35" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577784523_5e0b14cb6ff04.jpg</v>
+        <v>4等奖</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>MQ1108M52N6F3</v>
+        <v>MQ1108M52FEE3</v>
       </c>
       <c r="B36" t="str">
         <v>张弦-zhangxian</v>
       </c>
       <c r="C36" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772394_5e0ae56a2418e.jpg</v>
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772554_5e0ae60ae868a.jpg</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
+        <v>MQ1108M52FEE3</v>
+      </c>
+      <c r="B37" t="str">
+        <v>张弦-zhangxian</v>
+      </c>
+      <c r="C37" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772545_5e0ae601cea47.jpg</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B38" t="str">
+        <v>张弦-zhangxian</v>
+      </c>
+      <c r="C38" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772493_5e0ae5cd490a5.jpg</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B39" t="str">
+        <v>张弦-zhangxian</v>
+      </c>
+      <c r="C39" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577700069_5e09cae5b952f.jpg</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B40" t="str">
+        <v>张弦-zhangxian</v>
+      </c>
+      <c r="C40" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577693997_5e09b32d95852.jpg</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>5等奖</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>特别奖</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>MQ1108M52N6F3</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张弦-zhangxian</v>
+      </c>
+      <c r="C43" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772559_5e0ae60f08052.jpg</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
         <v>MAA118823000B</v>
       </c>
-      <c r="B37" t="str">
-        <v>张弦-zhangxian</v>
-      </c>
-      <c r="C37" t="str">
+      <c r="B44" t="str">
+        <v>张弦-zhangxian</v>
+      </c>
+      <c r="C44" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772552_5e0ae6080c0ef.jpg</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>MQ1108M52N6F3</v>
+      </c>
+      <c r="B45" t="str">
+        <v>张弦-zhangxian</v>
+      </c>
+      <c r="C45" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577784523_5e0b14cb6ff04.jpg</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>MQ1108M52N6F3</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张弦-zhangxian</v>
+      </c>
+      <c r="C46" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772394_5e0ae56a2418e.jpg</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>MAA118823000B</v>
+      </c>
+      <c r="B47" t="str">
+        <v>张弦-zhangxian</v>
+      </c>
+      <c r="C47" t="str">
         <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772436_5e0ae5945e5ba.jpg</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B48" t="str">
+        <v>王柳-wangliu</v>
+      </c>
+      <c r="C48" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577700069_5e09cae5b952f.jpg</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张弦-zhangxian</v>
+      </c>
+      <c r="C49" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577684916_5e098fb4d9674.jpg</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B50" t="str">
+        <v>张弦-zhangxian</v>
+      </c>
+      <c r="C50" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577684898_5e098fa20c736.jpg</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B51" t="str">
+        <v>长虹-changhong</v>
+      </c>
+      <c r="C51" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577692450_5e09ad22605f4.jpg</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B52" t="str">
+        <v>张七-zhangqi</v>
+      </c>
+      <c r="C52" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577700090_5e09cafa0c4e5.jpg</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B53" t="str">
+        <v>苏婷-suting</v>
+      </c>
+      <c r="C53" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577692585_5e09ada922fe6.jpg</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B54" t="str">
+        <v>张三-zhangsan</v>
+      </c>
+      <c r="C54" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577685552_5e0992304509e.jpg</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B55" t="str">
+        <v>王方言-wangfangyan</v>
+      </c>
+      <c r="C55" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577692580_5e09ada492bac.jpg</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B56" t="str">
+        <v>陆雨婷-luyuting</v>
+      </c>
+      <c r="C56" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577693997_5e09b32d95852.jpg</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B57" t="str">
+        <v>李四-lisi</v>
+      </c>
+      <c r="C57" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577692419_5e09ad034db5c.jpg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C57"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/product/抽奖结果.xlsx
+++ b/product/抽奖结果.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,29 +402,17 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>MQ1108M52K3F9</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Shangaan</v>
-      </c>
-      <c r="C3" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577684898_5e098fa20c736.jpg</v>
+        <v>2等奖</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2等奖</v>
+        <v>3等奖</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>MQ1108M52K3F9</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Shangaan</v>
-      </c>
-      <c r="C5" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577692450_5e09ad22605f4.jpg</v>
+        <v>4等奖</v>
       </c>
     </row>
     <row r="6">
@@ -432,30 +420,54 @@
         <v>MQ1108M52K3F9</v>
       </c>
       <c r="B6" t="str">
-        <v>Shangaan</v>
+        <v>张弦-zhangxian</v>
       </c>
       <c r="C6" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577693997_5e09b32d95852.jpg</v>
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577700090_5e09cafa0c4e5.jpg</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>3等奖</v>
+        <v>MQ1108M52FEE3</v>
+      </c>
+      <c r="B7" t="str">
+        <v>张弦-zhangxian</v>
+      </c>
+      <c r="C7" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772564_5e0ae6146bcd2.jpg</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>4等奖</v>
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B8" t="str">
+        <v>张弦-zhangxian</v>
+      </c>
+      <c r="C8" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772539_5e0ae5fb3ae85.jpg</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>5等奖</v>
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B9" t="str">
+        <v>张弦-zhangxian</v>
+      </c>
+      <c r="C9" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577773358_5e0ae92e5b20f.jpg</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>特别奖</v>
+        <v>MQ1108M52K3F9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>张弦-zhangxian</v>
+      </c>
+      <c r="C10" t="str">
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577684898_5e098fa20c736.jpg</v>
       </c>
     </row>
     <row r="11">
@@ -463,32 +475,32 @@
         <v>MQ1108M52K3F9</v>
       </c>
       <c r="B11" t="str">
-        <v>df</v>
+        <v>张弦-zhangxian</v>
       </c>
       <c r="C11" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577692585_5e09ada922fe6.jpg</v>
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772378_5e0ae55a22ce4.jpg</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>MQ1108M52K3F9</v>
+        <v>MQ1108M52FEE3</v>
       </c>
       <c r="B12" t="str">
-        <v>Shangaan</v>
+        <v>张弦-zhangxian</v>
       </c>
       <c r="C12" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577684916_5e098fb4d9674.jpg</v>
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772420_5e0ae5844c2d4.jpg</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>MQ1108M52FEE3</v>
+        <v>MQ1108M52K3F9</v>
       </c>
       <c r="B13" t="str">
-        <v>刘铭亮-liumingliang</v>
+        <v>张弦-zhangxian</v>
       </c>
       <c r="C13" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772554_5e0ae60ae868a.jpg</v>
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577692585_5e09ada922fe6.jpg</v>
       </c>
     </row>
     <row r="14">
@@ -496,10 +508,10 @@
         <v>MQ1108M52K3F9</v>
       </c>
       <c r="B14" t="str">
-        <v>df</v>
+        <v>张弦-zhangxian</v>
       </c>
       <c r="C14" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577692580_5e09ada492bac.jpg</v>
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577684925_5e098fbdf1b34.jpg</v>
       </c>
     </row>
     <row r="15">
@@ -507,26 +519,25 @@
         <v>MQ1108M52K3F9</v>
       </c>
       <c r="B15" t="str">
-        <v>Shangaan</v>
+        <v>张弦-zhangxian</v>
       </c>
       <c r="C15" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577700069_5e09cae5b952f.jpg</v>
+        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577700114_5e09cb1218d50.jpg</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>MQ1108M52FEE3</v>
-      </c>
-      <c r="B16" t="str">
-        <v>刘铭亮-liumingliang</v>
-      </c>
-      <c r="C16" t="str">
-        <v>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772564_5e0ae6146bcd2.jpg</v>
+        <v>5等奖</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>特别奖</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C17"/>
   </ignoredErrors>
 </worksheet>
 </file>